--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.8521902987349</v>
+        <v>144.424786262486</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.7269042850637</v>
+        <v>197.6083641361324</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.2961260515858</v>
+        <v>178.7488992081169</v>
       </c>
       <c r="AD2" t="n">
-        <v>102852.1902987349</v>
+        <v>144424.786262486</v>
       </c>
       <c r="AE2" t="n">
-        <v>140726.9042850637</v>
+        <v>197608.3641361324</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.049404682013945e-06</v>
+        <v>5.15516991482046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>127296.1260515858</v>
+        <v>178748.8992081169</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.40018112109456</v>
+        <v>113.4730415342444</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.743563049265</v>
+        <v>155.2588215043679</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.9834756284567</v>
+        <v>140.4411374871581</v>
       </c>
       <c r="AD3" t="n">
-        <v>82400.18112109456</v>
+        <v>113473.0415342444</v>
       </c>
       <c r="AE3" t="n">
-        <v>112743.563049265</v>
+        <v>155258.8215043679</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.684853906719039e-06</v>
+        <v>6.229428357760933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101983.4756284567</v>
+        <v>140441.1374871581</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.05941912925728</v>
+        <v>113.1322795424071</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.2773174586754</v>
+        <v>154.7925759137783</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.561727862653</v>
+        <v>140.0193897213544</v>
       </c>
       <c r="AD4" t="n">
-        <v>82059.41912925728</v>
+        <v>113132.2795424071</v>
       </c>
       <c r="AE4" t="n">
-        <v>112277.3174586754</v>
+        <v>154792.5759137782</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.707121705733462e-06</v>
+        <v>6.267073176838408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>101561.727862653</v>
+        <v>140019.3897213544</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.03127726566198</v>
+        <v>113.302980797242</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.6070566362586</v>
+        <v>155.026136901451</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.7645585994288</v>
+        <v>140.2306599761686</v>
       </c>
       <c r="AD2" t="n">
-        <v>83031.27726566198</v>
+        <v>113302.980797242</v>
       </c>
       <c r="AE2" t="n">
-        <v>113607.0566362586</v>
+        <v>155026.136901451</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.532048149593133e-06</v>
+        <v>6.116769223462692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>102764.5585994288</v>
+        <v>140230.6599761686</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.36142597784198</v>
+        <v>108.4625373088298</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.2175600849678</v>
+        <v>148.4032285753133</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.98486663127638</v>
+        <v>134.2398327253652</v>
       </c>
       <c r="AD3" t="n">
-        <v>78361.42597784198</v>
+        <v>108462.5373088298</v>
       </c>
       <c r="AE3" t="n">
-        <v>107217.5600849678</v>
+        <v>148403.2285753133</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.902116854921857e-06</v>
+        <v>6.757650879501886e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.373263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>96984.86663127638</v>
+        <v>134239.8327253652</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.81260860329833</v>
+        <v>95.98811324085185</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.15244688903245</v>
+        <v>131.3351712327651</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.16666950175545</v>
+        <v>118.8007268204155</v>
       </c>
       <c r="AD2" t="n">
-        <v>68812.60860329833</v>
+        <v>95988.11324085185</v>
       </c>
       <c r="AE2" t="n">
-        <v>94152.44688903245</v>
+        <v>131335.1712327651</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.340533383269263e-06</v>
+        <v>8.21322319930687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>85166.66950175544</v>
+        <v>118800.7268204155</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.04253067614593</v>
+        <v>91.03588174264164</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.57176876320544</v>
+        <v>124.559309619883</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.16421749881599</v>
+        <v>112.6715439298831</v>
       </c>
       <c r="AD2" t="n">
-        <v>72042.53067614594</v>
+        <v>91035.88174264164</v>
       </c>
       <c r="AE2" t="n">
-        <v>98571.76876320544</v>
+        <v>124559.309619883</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.238956179765519e-06</v>
+        <v>7.722457565156691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>89164.21749881598</v>
+        <v>112671.5439298831</v>
       </c>
     </row>
   </sheetData>
@@ -3233,28 +3233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.30931184391326</v>
+        <v>92.71726174511487</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.72732582518482</v>
+        <v>126.8598479165162</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.06843718505274</v>
+        <v>114.7525220803122</v>
       </c>
       <c r="AD2" t="n">
-        <v>66309.31184391327</v>
+        <v>92717.26174511487</v>
       </c>
       <c r="AE2" t="n">
-        <v>90727.32582518482</v>
+        <v>126859.8479165162</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.34545273029042e-06</v>
+        <v>8.515687244467286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>82068.43718505274</v>
+        <v>114752.5220803122</v>
       </c>
     </row>
   </sheetData>
@@ -3530,28 +3530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.72411524935283</v>
+        <v>126.1659833733801</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.973957534027</v>
+        <v>172.6258645017376</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.4739868501182</v>
+        <v>156.1506942756623</v>
       </c>
       <c r="AD2" t="n">
-        <v>95724.11524935284</v>
+        <v>126165.9833733801</v>
       </c>
       <c r="AE2" t="n">
-        <v>130973.957534027</v>
+        <v>172625.8645017376</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391464455504557e-06</v>
+        <v>5.834950860885265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>118473.9868501181</v>
+        <v>156150.6942756623</v>
       </c>
     </row>
     <row r="3">
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.25603252992235</v>
+        <v>109.612559799378</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.4416002367791</v>
+        <v>149.9767400822922</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.09208610895041</v>
+        <v>135.6631705025558</v>
       </c>
       <c r="AD3" t="n">
-        <v>79256.03252992235</v>
+        <v>109612.559799378</v>
       </c>
       <c r="AE3" t="n">
-        <v>108441.6002367791</v>
+        <v>149976.7400822922</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.855458583597533e-06</v>
+        <v>6.63324403856182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>98092.08610895042</v>
+        <v>135663.1705025558</v>
       </c>
     </row>
   </sheetData>
@@ -3933,28 +3933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.99778141611998</v>
+        <v>90.85020786488346</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.93283203324006</v>
+        <v>124.305262428981</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.44520736202274</v>
+        <v>112.4417426463232</v>
       </c>
       <c r="AD2" t="n">
-        <v>64997.78141611998</v>
+        <v>90850.20786488346</v>
       </c>
       <c r="AE2" t="n">
-        <v>88932.83203324006</v>
+        <v>124305.262428981</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.286198462086544e-06</v>
+        <v>8.592372223215031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>80445.20736202275</v>
+        <v>112441.7426463233</v>
       </c>
     </row>
   </sheetData>
@@ -4230,28 +4230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.76704250560293</v>
+        <v>106.0392055379552</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0360542790169</v>
+        <v>145.0875191365519</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.01156067768214</v>
+        <v>131.2405699418108</v>
       </c>
       <c r="AD2" t="n">
-        <v>76767.04250560293</v>
+        <v>106039.2055379552</v>
       </c>
       <c r="AE2" t="n">
-        <v>105036.0542790169</v>
+        <v>145087.5191365519</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.928687956683203e-06</v>
+        <v>6.957998299908578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95011.56067768214</v>
+        <v>131240.5699418108</v>
       </c>
     </row>
     <row r="3">
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.3883183175118</v>
+        <v>104.660481349864</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.1496230198532</v>
+        <v>143.2010878773882</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.30516777026952</v>
+        <v>129.5341770343981</v>
       </c>
       <c r="AD3" t="n">
-        <v>75388.3183175118</v>
+        <v>104660.481349864</v>
       </c>
       <c r="AE3" t="n">
-        <v>103149.6230198532</v>
+        <v>143201.0878773882</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.07693798539388e-06</v>
+        <v>7.220560116755224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.295138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>93305.16777026952</v>
+        <v>129534.1770343981</v>
       </c>
     </row>
   </sheetData>
@@ -4633,28 +4633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.22527479177649</v>
+        <v>111.231849873253</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.1360043762837</v>
+        <v>152.192324199403</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.5293400990015</v>
+        <v>137.6673023811221</v>
       </c>
       <c r="AD2" t="n">
-        <v>81225.27479177648</v>
+        <v>111231.849873253</v>
       </c>
       <c r="AE2" t="n">
-        <v>111136.0043762837</v>
+        <v>152192.324199403</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.633800515625866e-06</v>
+        <v>6.337030798681689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>100529.3400990015</v>
+        <v>137667.3023811221</v>
       </c>
     </row>
     <row r="3">
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.19916795244652</v>
+        <v>107.0351508333308</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6273073794172</v>
+        <v>146.4502154276897</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.54638541200936</v>
+        <v>132.473212411479</v>
       </c>
       <c r="AD3" t="n">
-        <v>77199.16795244651</v>
+        <v>107035.1508333308</v>
       </c>
       <c r="AE3" t="n">
-        <v>105627.3073794172</v>
+        <v>146450.2154276897</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.964799732133664e-06</v>
+        <v>6.914264529683061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>95546.38541200936</v>
+        <v>132473.212411479</v>
       </c>
     </row>
   </sheetData>
@@ -5036,28 +5036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.8611305853242</v>
+        <v>131.9587474114435</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.0026485458214</v>
+        <v>180.5517798173248</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.8318694565789</v>
+        <v>163.3201713576244</v>
       </c>
       <c r="AD2" t="n">
-        <v>100861.1305853242</v>
+        <v>131958.7474114434</v>
       </c>
       <c r="AE2" t="n">
-        <v>138002.6485458214</v>
+        <v>180551.7798173248</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.135448885819313e-06</v>
+        <v>5.330055299694879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>124831.8694565789</v>
+        <v>163320.1713576244</v>
       </c>
     </row>
     <row r="3">
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.19811323299294</v>
+        <v>112.0397970039484</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.0988407332727</v>
+        <v>153.2977931077317</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.4957233019199</v>
+        <v>138.6672668883756</v>
       </c>
       <c r="AD3" t="n">
-        <v>81198.11323299294</v>
+        <v>112039.7970039484</v>
       </c>
       <c r="AE3" t="n">
-        <v>111098.8407332727</v>
+        <v>153297.7931077317</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.748497092153417e-06</v>
+        <v>6.372196619847733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>100495.7233019199</v>
+        <v>138667.2668883756</v>
       </c>
     </row>
     <row r="4">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.08880384224391</v>
+        <v>111.9304876131994</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.94927880246</v>
+        <v>153.148231176919</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.3604353518725</v>
+        <v>138.5319789383281</v>
       </c>
       <c r="AD4" t="n">
-        <v>81088.8038422439</v>
+        <v>111930.4876131994</v>
       </c>
       <c r="AE4" t="n">
-        <v>110949.27880246</v>
+        <v>153148.231176919</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.75082637417779e-06</v>
+        <v>6.376156244912791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>100360.4353518725</v>
+        <v>138531.9789383281</v>
       </c>
     </row>
   </sheetData>
@@ -5545,28 +5545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.26128359950646</v>
+        <v>101.9151304823758</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2393202805307</v>
+        <v>139.4447777041604</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.67262023975151</v>
+        <v>126.1363638320876</v>
       </c>
       <c r="AD2" t="n">
-        <v>73261.28359950645</v>
+        <v>101915.1304823758</v>
       </c>
       <c r="AE2" t="n">
-        <v>100239.3202805307</v>
+        <v>139444.7777041604</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.166686314391953e-06</v>
+        <v>7.513521429258409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.303819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>90672.62023975152</v>
+        <v>126136.3638320876</v>
       </c>
     </row>
     <row r="3">
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.12344222704046</v>
+        <v>92.33982445789923</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.0507196335907</v>
+        <v>126.3434215687901</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.5020193738527</v>
+        <v>114.285382738404</v>
       </c>
       <c r="AD3" t="n">
-        <v>73123.44222704046</v>
+        <v>92339.82445789923</v>
       </c>
       <c r="AE3" t="n">
-        <v>100050.7196335907</v>
+        <v>126343.4215687901</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.19817267307453e-06</v>
+        <v>7.570298784893201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>90502.0193738527</v>
+        <v>114285.382738404</v>
       </c>
     </row>
   </sheetData>
@@ -5948,28 +5948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.94353785009987</v>
+        <v>97.52810714793604</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.69983417758266</v>
+        <v>133.4422588361729</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.56637631925859</v>
+        <v>120.7067169402707</v>
       </c>
       <c r="AD2" t="n">
-        <v>69943.53785009988</v>
+        <v>97528.10714793604</v>
       </c>
       <c r="AE2" t="n">
-        <v>95699.83417758266</v>
+        <v>133442.2588361729</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.307587130854098e-06</v>
+        <v>8.03658069722954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>86566.37631925859</v>
+        <v>120706.7169402707</v>
       </c>
     </row>
   </sheetData>
@@ -9738,28 +9738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.56125847000288</v>
+        <v>94.29113420888841</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.44029443098684</v>
+        <v>129.0132896558028</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.61792247128407</v>
+        <v>116.7004423623764</v>
       </c>
       <c r="AD2" t="n">
-        <v>67561.25847000288</v>
+        <v>94291.13420888841</v>
       </c>
       <c r="AE2" t="n">
-        <v>92440.29443098683</v>
+        <v>129013.2896558028</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.361346685932148e-06</v>
+        <v>8.387031411517311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.460069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>83617.92247128408</v>
+        <v>116700.4423623764</v>
       </c>
     </row>
   </sheetData>
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.39838051652862</v>
+        <v>97.51932942081559</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.05865821380381</v>
+        <v>133.4302487626807</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.604638903603</v>
+        <v>120.6958530913364</v>
       </c>
       <c r="AD2" t="n">
-        <v>72398.38051652862</v>
+        <v>97519.3294208156</v>
       </c>
       <c r="AE2" t="n">
-        <v>99058.65821380381</v>
+        <v>133430.2487626807</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.085866552181612e-06</v>
+        <v>8.427505577708521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>89604.638903603</v>
+        <v>120695.8530913364</v>
       </c>
     </row>
   </sheetData>
@@ -10332,28 +10332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.94860240109463</v>
+        <v>108.6792803116564</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.0209607716572</v>
+        <v>148.6997859138069</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.71159188400839</v>
+        <v>134.5080870476939</v>
       </c>
       <c r="AD2" t="n">
-        <v>78948.60240109463</v>
+        <v>108679.2803116564</v>
       </c>
       <c r="AE2" t="n">
-        <v>108020.9607716572</v>
+        <v>148699.785913807</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781896510938389e-06</v>
+        <v>6.644642982313362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97711.59188400839</v>
+        <v>134508.087047694</v>
       </c>
     </row>
     <row r="3">
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.46685584822399</v>
+        <v>106.0269415581935</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.6253256510906</v>
+        <v>145.0707390183935</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.64003141354374</v>
+        <v>131.2253912945783</v>
       </c>
       <c r="AD3" t="n">
-        <v>76466.85584822399</v>
+        <v>106026.9415581935</v>
       </c>
       <c r="AE3" t="n">
-        <v>104625.3256510906</v>
+        <v>145070.7390183935</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.012725732416349e-06</v>
+        <v>7.050200818750776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.329861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>94640.03141354374</v>
+        <v>131225.3912945783</v>
       </c>
     </row>
   </sheetData>
@@ -10735,28 +10735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.60180107029706</v>
+        <v>128.2902700415228</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5430901118936</v>
+        <v>175.5324072380025</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7979250205543</v>
+        <v>158.7798406525374</v>
       </c>
       <c r="AD2" t="n">
-        <v>97601.80107029706</v>
+        <v>128290.2700415228</v>
       </c>
       <c r="AE2" t="n">
-        <v>133543.0901118936</v>
+        <v>175532.4072380025</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.298913519035301e-06</v>
+        <v>5.640774478725183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.241319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>120797.9250205543</v>
+        <v>158779.8406525374</v>
       </c>
     </row>
     <row r="3">
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.00942121038079</v>
+        <v>110.6125493270349</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.4724198665447</v>
+        <v>151.3449698704559</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.02452576001589</v>
+        <v>136.9008183600602</v>
       </c>
       <c r="AD3" t="n">
-        <v>80009.42121038079</v>
+        <v>110612.5493270349</v>
       </c>
       <c r="AE3" t="n">
-        <v>109472.4198665447</v>
+        <v>151344.9698704559</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.820078038011012e-06</v>
+        <v>6.531907726351193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>99024.52576001589</v>
+        <v>136900.8183600602</v>
       </c>
     </row>
     <row r="4">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.10549240551353</v>
+        <v>110.7086205221676</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.6038687140872</v>
+        <v>151.4764187179985</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.14342931403866</v>
+        <v>137.019721914083</v>
       </c>
       <c r="AD4" t="n">
-        <v>80105.49240551353</v>
+        <v>110708.6205221676</v>
       </c>
       <c r="AE4" t="n">
-        <v>109603.8687140872</v>
+        <v>151476.4187179985</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.819745904759661e-06</v>
+        <v>6.531339815505109e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>99143.42931403866</v>
+        <v>137019.721914083</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.40733225236622</v>
+        <v>111.7884539187626</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.6486151918994</v>
+        <v>152.9538944101064</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.27934384730138</v>
+        <v>138.3561893997867</v>
       </c>
       <c r="AD2" t="n">
-        <v>79407.33225236622</v>
+        <v>111788.4539187626</v>
       </c>
       <c r="AE2" t="n">
-        <v>108648.6151918994</v>
+        <v>152953.8944101064</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.638747571074198e-06</v>
+        <v>7.799512017234756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>98279.34384730138</v>
+        <v>138356.1893997867</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.12339511982884</v>
+        <v>99.08753484447446</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.31416694565411</v>
+        <v>135.5759366076702</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.02663943367611</v>
+        <v>122.6367594998925</v>
       </c>
       <c r="AD2" t="n">
-        <v>71123.39511982884</v>
+        <v>99087.53484447446</v>
       </c>
       <c r="AE2" t="n">
-        <v>97314.16694565411</v>
+        <v>135575.9366076702</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.266173169313254e-06</v>
+        <v>7.860136247530599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>88026.63943367612</v>
+        <v>122636.7594998925</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.80308053446529</v>
+        <v>103.7737810565798</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.3488748662206</v>
+        <v>141.9878654176613</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.58084189656223</v>
+        <v>128.4367428234587</v>
       </c>
       <c r="AD2" t="n">
-        <v>74803.08053446529</v>
+        <v>103773.7810565798</v>
       </c>
       <c r="AE2" t="n">
-        <v>102348.8748662206</v>
+        <v>141987.8654176613</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.068469425453851e-06</v>
+        <v>7.268023718670065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92580.84189656224</v>
+        <v>128436.7428234587</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.27572456048196</v>
+        <v>103.2464250825965</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6273231573134</v>
+        <v>141.266313708754</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.92815407004872</v>
+        <v>127.7840549969452</v>
       </c>
       <c r="AD3" t="n">
-        <v>74275.72456048196</v>
+        <v>103246.4250825965</v>
       </c>
       <c r="AE3" t="n">
-        <v>101627.3231573134</v>
+        <v>141266.3137087541</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.117875071532495e-06</v>
+        <v>7.356283299850462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.303819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>91928.15407004872</v>
+        <v>127784.0549969452</v>
       </c>
     </row>
   </sheetData>
